--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3124816.768425949</v>
+        <v>-3127384.149204341</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>365.9974114868649</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>174.04781663786</v>
+        <v>348.5364615943918</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.9466114440672</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>48.97348249585477</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>106.7157852221787</v>
+        <v>106.7157852221781</v>
       </c>
       <c r="T11" t="n">
-        <v>189.9217548036181</v>
+        <v>189.9217548036185</v>
       </c>
       <c r="U11" t="n">
-        <v>234.308819951846</v>
+        <v>234.3088199518462</v>
       </c>
       <c r="V11" t="n">
-        <v>311.0158282935192</v>
+        <v>311.0158282935191</v>
       </c>
       <c r="W11" t="n">
-        <v>332.5045385407973</v>
+        <v>332.5045385407972</v>
       </c>
       <c r="X11" t="n">
-        <v>352.9946705018534</v>
+        <v>255.5303080839745</v>
       </c>
       <c r="Y11" t="n">
-        <v>369.5015084794379</v>
+        <v>369.5015084794378</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>150.510390922012</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>149.5701698681885</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>100.5930033191789</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.82114224295793</v>
+        <v>84.82114224295782</v>
       </c>
       <c r="S13" t="n">
         <v>177.9260301851217</v>
       </c>
       <c r="T13" t="n">
-        <v>204.0122658205962</v>
+        <v>204.0122658205961</v>
       </c>
       <c r="U13" t="n">
-        <v>269.4907239445849</v>
+        <v>269.4907239445848</v>
       </c>
       <c r="V13" t="n">
-        <v>235.4012131472123</v>
+        <v>235.4012131472122</v>
       </c>
       <c r="W13" t="n">
-        <v>269.7865681599753</v>
+        <v>269.7865681599752</v>
       </c>
       <c r="X13" t="n">
-        <v>208.9732252124215</v>
+        <v>208.9732252124214</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>99.65278226535735</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>261.5459553935341</v>
+        <v>13.91332762480513</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1780,10 +1780,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572815</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124586</v>
+        <v>49.37728379124572</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C17" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D17" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136071</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H17" t="n">
         <v>196.9230441592154</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007071</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T17" t="n">
         <v>106.2332499115151</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.1067657762841</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010732</v>
+        <v>101.890258612559</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482621</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092319</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U19" t="n">
         <v>188.5271179775078</v>
@@ -2062,10 +2062,10 @@
         <v>154.452923095723</v>
       </c>
       <c r="W19" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y19" t="n">
         <v>120.8999331239898</v>
@@ -2081,7 +2081,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
         <v>256.998321392578</v>
@@ -2093,10 +2093,10 @@
         <v>309.1913255136064</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253477</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007071</v>
       </c>
       <c r="T20" t="n">
         <v>106.2332499115151</v>
@@ -2147,7 +2147,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3005938533748</v>
+        <v>110.548026295317</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
         <v>256.998321392578</v>
@@ -2333,7 +2333,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
         <v>153.3104517307972</v>
@@ -2384,7 +2384,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482622</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>42.20693826439375</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>231.0452163728806</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>120.8999331239898</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.7855516119913</v>
+        <v>301.7855516119914</v>
       </c>
       <c r="C26" t="n">
-        <v>284.3246017195182</v>
+        <v>284.3246017195183</v>
       </c>
       <c r="D26" t="n">
-        <v>273.7347515691936</v>
+        <v>273.7347515691937</v>
       </c>
       <c r="E26" t="n">
-        <v>300.9820800207725</v>
+        <v>300.9820800207726</v>
       </c>
       <c r="F26" t="n">
-        <v>325.9277556902221</v>
+        <v>325.9277556902222</v>
       </c>
       <c r="G26" t="n">
-        <v>329.9734356019641</v>
+        <v>329.9734356019642</v>
       </c>
       <c r="H26" t="n">
-        <v>213.6594743358311</v>
+        <v>213.6594743358313</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.23947173668651</v>
+        <v>28.23947173668675</v>
       </c>
       <c r="T26" t="n">
-        <v>122.9696800881308</v>
+        <v>122.9696800881309</v>
       </c>
       <c r="U26" t="n">
-        <v>170.0468819074137</v>
+        <v>170.0468819074128</v>
       </c>
       <c r="V26" t="n">
-        <v>246.8039684186456</v>
+        <v>246.8039684186457</v>
       </c>
       <c r="W26" t="n">
-        <v>268.2926786659237</v>
+        <v>268.2926786659238</v>
       </c>
       <c r="X26" t="n">
-        <v>288.7828106269797</v>
+        <v>288.7828106269798</v>
       </c>
       <c r="Y26" t="n">
-        <v>305.2896486045643</v>
+        <v>305.2896486045644</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247653</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.88369013044797</v>
+        <v>98.88369013044807</v>
       </c>
       <c r="C28" t="n">
-        <v>86.29853104713851</v>
+        <v>86.29853104713861</v>
       </c>
       <c r="D28" t="n">
-        <v>67.66718296672303</v>
+        <v>67.66718296672313</v>
       </c>
       <c r="E28" t="n">
-        <v>65.48567259507985</v>
+        <v>65.48567259507995</v>
       </c>
       <c r="F28" t="n">
-        <v>64.47275797144192</v>
+        <v>64.47275797144202</v>
       </c>
       <c r="G28" t="n">
-        <v>85.0775182075389</v>
+        <v>98.42874183184607</v>
       </c>
       <c r="H28" t="n">
-        <v>63.80672486283146</v>
+        <v>63.80672486283156</v>
       </c>
       <c r="I28" t="n">
-        <v>15.40413035834877</v>
+        <v>15.40413035834889</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>7.983862618558121</v>
       </c>
       <c r="S28" t="n">
-        <v>108.8207352799526</v>
+        <v>108.8207352799527</v>
       </c>
       <c r="T28" t="n">
-        <v>138.6006592246799</v>
+        <v>138.60065922468</v>
       </c>
       <c r="U28" t="n">
-        <v>205.2635481541235</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>171.1893532723388</v>
       </c>
       <c r="W28" t="n">
-        <v>205.5747082851017</v>
+        <v>205.5747082851018</v>
       </c>
       <c r="X28" t="n">
-        <v>158.1125889618575</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.6363633006055</v>
+        <v>137.6363633006056</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.47817817866339</v>
+        <v>58.47817817866343</v>
       </c>
       <c r="T29" t="n">
-        <v>153.2083865301077</v>
+        <v>153.2083865301078</v>
       </c>
       <c r="U29" t="n">
-        <v>200.285588349389</v>
+        <v>200.2855883493899</v>
       </c>
       <c r="V29" t="n">
         <v>277.0426748606225</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247674</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>116.5372374891154</v>
       </c>
       <c r="D31" t="n">
-        <v>97.90588940869992</v>
+        <v>97.90588940869993</v>
       </c>
       <c r="E31" t="n">
-        <v>95.72437903705674</v>
+        <v>95.72437903705675</v>
       </c>
       <c r="F31" t="n">
-        <v>94.71146441341881</v>
+        <v>94.71146441341882</v>
       </c>
       <c r="G31" t="n">
         <v>115.3162246495158</v>
       </c>
       <c r="H31" t="n">
-        <v>94.04543130480835</v>
+        <v>94.04543130480836</v>
       </c>
       <c r="I31" t="n">
-        <v>45.64283680032566</v>
+        <v>45.64283680032569</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.22256906053489</v>
+        <v>38.22256906053492</v>
       </c>
       <c r="S31" t="n">
         <v>139.0594417219295</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.47817817866338</v>
+        <v>58.47817817866346</v>
       </c>
       <c r="T32" t="n">
         <v>153.2083865301077</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247674</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.1223965724248</v>
+        <v>129.1223965724249</v>
       </c>
       <c r="C34" t="n">
         <v>116.5372374891154</v>
       </c>
       <c r="D34" t="n">
-        <v>97.90588940869989</v>
+        <v>97.90588940869993</v>
       </c>
       <c r="E34" t="n">
-        <v>95.72437903705671</v>
+        <v>95.72437903705675</v>
       </c>
       <c r="F34" t="n">
-        <v>94.71146441341878</v>
+        <v>94.71146441341882</v>
       </c>
       <c r="G34" t="n">
         <v>115.3162246495158</v>
       </c>
       <c r="H34" t="n">
-        <v>94.04543130480832</v>
+        <v>94.04543130480836</v>
       </c>
       <c r="I34" t="n">
-        <v>45.64283680032563</v>
+        <v>45.64283680032569</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.22256906053487</v>
+        <v>38.22256906053492</v>
       </c>
       <c r="S34" t="n">
-        <v>139.0594417219294</v>
+        <v>139.0594417219295</v>
       </c>
       <c r="T34" t="n">
-        <v>168.8393656666567</v>
+        <v>168.8393656666568</v>
       </c>
       <c r="U34" t="n">
         <v>235.5022545961004</v>
       </c>
       <c r="V34" t="n">
-        <v>201.4280597143155</v>
+        <v>201.4280597143156</v>
       </c>
       <c r="W34" t="n">
-        <v>235.8134147270785</v>
+        <v>235.8134147270786</v>
       </c>
       <c r="X34" t="n">
         <v>175.0000717795247</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.8750697425823</v>
+        <v>167.8750697425824</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307967</v>
+        <v>153.3104517307963</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E37" t="n">
-        <v>99.70874824091503</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862159</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>164.0711673124586</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307963</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383239</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052293</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010745</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482634</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G40" t="n">
-        <v>119.3005938533743</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621587</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>196.6598613601178</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.3104517307972</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.20693826439467</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>239.4866237999594</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,16 +4034,16 @@
         <v>153.3104517307972</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X46" t="n">
-        <v>170.2318734253267</v>
+        <v>170.2318734253266</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.5208260970079</v>
+        <v>744.6640320613963</v>
       </c>
       <c r="C11" t="n">
-        <v>100.7149507052302</v>
+        <v>392.607000147869</v>
       </c>
       <c r="D11" t="n">
-        <v>100.7149507052302</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E11" t="n">
-        <v>100.7149507052302</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F11" t="n">
-        <v>100.7149507052302</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G11" t="n">
-        <v>100.7149507052302</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H11" t="n">
-        <v>100.7149507052302</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I11" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5066,7 +5066,7 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2454.54560595351</v>
+        <v>2454.545605953511</v>
       </c>
       <c r="T11" t="n">
         <v>2262.705449586219</v>
@@ -5075,16 +5075,16 @@
         <v>2026.029873877284</v>
       </c>
       <c r="V11" t="n">
-        <v>1711.872471560597</v>
+        <v>1711.872471560598</v>
       </c>
       <c r="W11" t="n">
         <v>1376.009301317368</v>
       </c>
       <c r="X11" t="n">
-        <v>1019.449028083172</v>
+        <v>1117.897879010323</v>
       </c>
       <c r="Y11" t="n">
-        <v>646.2151811342452</v>
+        <v>744.6640320613963</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I12" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L12" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M12" t="n">
-        <v>956.2844025217532</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N12" t="n">
-        <v>1343.569531118698</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O12" t="n">
-        <v>1675.63996629486</v>
+        <v>1675.639966294861</v>
       </c>
       <c r="P12" t="n">
-        <v>2238.100841080695</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q12" t="n">
         <v>2538.001278676482</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.9368604946371</v>
+        <v>203.2774844690252</v>
       </c>
       <c r="C13" t="n">
-        <v>303.9368604946371</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D13" t="n">
-        <v>303.9368604946371</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E13" t="n">
-        <v>303.9368604946371</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F13" t="n">
-        <v>303.9368604946371</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G13" t="n">
-        <v>152.8558808298</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>93.2850254279715</v>
+        <v>93.28502542797162</v>
       </c>
       <c r="K13" t="n">
-        <v>281.5446030517467</v>
+        <v>281.5446030517469</v>
       </c>
       <c r="L13" t="n">
-        <v>573.3448475938721</v>
+        <v>573.3448475938724</v>
       </c>
       <c r="M13" t="n">
-        <v>890.4957242090568</v>
+        <v>890.495724209057</v>
       </c>
       <c r="N13" t="n">
-        <v>1205.93405362007</v>
+        <v>1205.934053620071</v>
       </c>
       <c r="O13" t="n">
         <v>1482.540962248132</v>
@@ -5221,28 +5221,28 @@
         <v>1768.998647073294</v>
       </c>
       <c r="R13" t="n">
-        <v>1683.32072561576</v>
+        <v>1683.320725615761</v>
       </c>
       <c r="S13" t="n">
-        <v>1503.597462802506</v>
+        <v>1503.597462802507</v>
       </c>
       <c r="T13" t="n">
-        <v>1297.524467024126</v>
+        <v>1297.524467024127</v>
       </c>
       <c r="U13" t="n">
-        <v>1025.311614554848</v>
+        <v>1025.31161455485</v>
       </c>
       <c r="V13" t="n">
-        <v>787.532611375846</v>
+        <v>787.5326113758474</v>
       </c>
       <c r="W13" t="n">
-        <v>515.0209263657699</v>
+        <v>515.0209263657714</v>
       </c>
       <c r="X13" t="n">
-        <v>303.9368604946371</v>
+        <v>303.9368604946387</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.9368604946371</v>
+        <v>203.2774844690252</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464212</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>979.8546354718742</v>
+        <v>979.8546354718731</v>
       </c>
       <c r="D14" t="n">
-        <v>669.0385698131972</v>
+        <v>669.0385698131959</v>
       </c>
       <c r="E14" t="n">
-        <v>330.699950163026</v>
+        <v>330.6999501630248</v>
       </c>
       <c r="F14" t="n">
-        <v>330.699950163026</v>
+        <v>330.6999501630248</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607999</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580261</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228006</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998339</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657651</v>
+        <v>116.3881606657649</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C17" t="n">
         <v>1440.850850103805</v>
@@ -5498,10 +5498,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F17" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495727</v>
@@ -5516,7 +5516,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5552,7 +5552,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X17" t="n">
         <v>2290.53823536262</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.259395817092</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630285</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D19" t="n">
         <v>280.5494426245363</v>
@@ -5659,7 +5659,7 @@
         <v>231.3077836159866</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G19" t="n">
         <v>114.0578686404822</v>
@@ -5701,22 +5701,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U19" t="n">
-        <v>1233.58015894186</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V19" t="n">
-        <v>1077.567105309816</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W19" t="n">
-        <v>886.8213698466991</v>
+        <v>886.8213698466989</v>
       </c>
       <c r="X19" t="n">
-        <v>658.8318189486818</v>
+        <v>757.503253522525</v>
       </c>
       <c r="Y19" t="n">
-        <v>536.7106743789951</v>
+        <v>635.3821089528384</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5765,7 +5765,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
@@ -5792,7 +5792,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y20" t="n">
         <v>1999.070337960652</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5874,7 +5874,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>453.7336441225987</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C22" t="n">
-        <v>383.4688957685352</v>
+        <v>374.6279184371638</v>
       </c>
       <c r="D22" t="n">
-        <v>332.023690930043</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E22" t="n">
-        <v>282.7820319214933</v>
+        <v>273.9410545901218</v>
       </c>
       <c r="F22" t="n">
-        <v>234.5635189974264</v>
+        <v>225.7225416660549</v>
       </c>
       <c r="G22" t="n">
         <v>114.0578686404822</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T22" t="n">
-        <v>1621.35446039006</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U22" t="n">
-        <v>1332.251593515703</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V22" t="n">
-        <v>1176.23853988366</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4928044205424</v>
+        <v>877.9803925153274</v>
       </c>
       <c r="X22" t="n">
-        <v>757.503253522525</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.7106743789949</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464967</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H23" t="n">
         <v>66.5121164321834</v>
@@ -5987,16 +5987,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6005,7 +6005,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6069,10 +6069,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,31 +6084,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
         <v>1109.759191501176</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>500.9308303909355</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C25" t="n">
-        <v>430.666082036872</v>
+        <v>473.2993530110072</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245363</v>
+        <v>421.8541481725149</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159866</v>
+        <v>372.6124891639652</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919198</v>
+        <v>225.7225416660549</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>156.6911396146173</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>109.1453874063185</v>
       </c>
       <c r="I25" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6166,31 +6166,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T25" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U25" t="n">
-        <v>1422.082050758176</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V25" t="n">
-        <v>1167.397562552289</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W25" t="n">
-        <v>934.0185561150356</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X25" t="n">
-        <v>804.7004397908618</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.5792952211751</v>
+        <v>725.2125661953104</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1817.40498121079</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.208413817337</v>
+        <v>1530.208413817338</v>
       </c>
       <c r="D26" t="n">
         <v>1253.708664757546</v>
       </c>
       <c r="E26" t="n">
-        <v>949.6863617062604</v>
+        <v>949.6863617062606</v>
       </c>
       <c r="F26" t="n">
-        <v>620.4664064636117</v>
+        <v>620.4664064636119</v>
       </c>
       <c r="G26" t="n">
-        <v>287.1599058555672</v>
+        <v>287.1599058555673</v>
       </c>
       <c r="H26" t="n">
         <v>71.34225501129329</v>
@@ -6227,28 +6227,28 @@
         <v>260.2213859703187</v>
       </c>
       <c r="K26" t="n">
-        <v>594.0407596601652</v>
+        <v>594.0407596601651</v>
       </c>
       <c r="L26" t="n">
         <v>1045.074972908574</v>
       </c>
       <c r="M26" t="n">
-        <v>1578.606877580499</v>
+        <v>1578.606877580498</v>
       </c>
       <c r="N26" t="n">
-        <v>2125.385694639281</v>
+        <v>2362.062485015665</v>
       </c>
       <c r="O26" t="n">
-        <v>2628.358165518618</v>
+        <v>2865.034955895002</v>
       </c>
       <c r="P26" t="n">
-        <v>3023.132531875796</v>
+        <v>3259.80932225218</v>
       </c>
       <c r="Q26" t="n">
-        <v>3443.036428333609</v>
+        <v>3508.095684007862</v>
       </c>
       <c r="R26" t="n">
-        <v>3567.112750564664</v>
+        <v>3567.112750564665</v>
       </c>
       <c r="S26" t="n">
         <v>3538.588031638718</v>
@@ -6257,16 +6257,16 @@
         <v>3414.376233569899</v>
       </c>
       <c r="U26" t="n">
-        <v>3242.611706390694</v>
+        <v>3242.611706390695</v>
       </c>
       <c r="V26" t="n">
-        <v>2993.314768594082</v>
+        <v>2993.314768594083</v>
       </c>
       <c r="W26" t="n">
-        <v>2722.312062870926</v>
+        <v>2722.312062870927</v>
       </c>
       <c r="X26" t="n">
-        <v>2430.612254156805</v>
+        <v>2430.612254156806</v>
       </c>
       <c r="Y26" t="n">
         <v>2122.238871727953</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>946.3739930602185</v>
+        <v>946.3739930602176</v>
       </c>
       <c r="C27" t="n">
-        <v>771.9209637790915</v>
+        <v>771.9209637790906</v>
       </c>
       <c r="D27" t="n">
-        <v>622.9865541178402</v>
+        <v>622.9865541178393</v>
       </c>
       <c r="E27" t="n">
-        <v>463.7490991123847</v>
+        <v>463.7490991123838</v>
       </c>
       <c r="F27" t="n">
-        <v>317.2145411392697</v>
+        <v>317.2145411392688</v>
       </c>
       <c r="G27" t="n">
-        <v>180.8514409718878</v>
+        <v>180.8514409718869</v>
       </c>
       <c r="H27" t="n">
-        <v>90.34954660975535</v>
+        <v>90.34954660975443</v>
       </c>
       <c r="I27" t="n">
         <v>71.34225501129329</v>
@@ -6306,49 +6306,49 @@
         <v>165.0195245019106</v>
       </c>
       <c r="K27" t="n">
-        <v>403.2837234822578</v>
+        <v>403.2837234822576</v>
       </c>
       <c r="L27" t="n">
-        <v>769.9818837949231</v>
+        <v>769.9818837949229</v>
       </c>
       <c r="M27" t="n">
         <v>1217.258209017239</v>
       </c>
       <c r="N27" t="n">
-        <v>1690.781252571694</v>
+        <v>1690.781252571693</v>
       </c>
       <c r="O27" t="n">
         <v>2101.742531989748</v>
       </c>
       <c r="P27" t="n">
-        <v>2412.242123465851</v>
+        <v>2412.24212346585</v>
       </c>
       <c r="Q27" t="n">
-        <v>2569.883681112451</v>
+        <v>2569.88368111245</v>
       </c>
       <c r="R27" t="n">
-        <v>2569.739327704966</v>
+        <v>2569.739327704965</v>
       </c>
       <c r="S27" t="n">
-        <v>2440.301441198446</v>
+        <v>2440.301441198445</v>
       </c>
       <c r="T27" t="n">
-        <v>2247.658440876302</v>
+        <v>2247.658440876301</v>
       </c>
       <c r="U27" t="n">
         <v>2019.590594010717</v>
       </c>
       <c r="V27" t="n">
-        <v>1784.438485778975</v>
+        <v>1784.438485778974</v>
       </c>
       <c r="W27" t="n">
-        <v>1530.201129050773</v>
+        <v>1530.201129050772</v>
       </c>
       <c r="X27" t="n">
         <v>1322.34962884524</v>
       </c>
       <c r="Y27" t="n">
-        <v>1114.589330080287</v>
+        <v>1114.589330080286</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>524.0821721922048</v>
+        <v>537.5682566612027</v>
       </c>
       <c r="C28" t="n">
-        <v>436.9119388112568</v>
+        <v>450.3980232802546</v>
       </c>
       <c r="D28" t="n">
-        <v>368.56124894588</v>
+        <v>382.0473334148776</v>
       </c>
       <c r="E28" t="n">
-        <v>302.4141049104459</v>
+        <v>315.9001893794434</v>
       </c>
       <c r="F28" t="n">
-        <v>237.2901069594944</v>
+        <v>250.7761914284918</v>
       </c>
       <c r="G28" t="n">
-        <v>151.3532198811723</v>
+        <v>151.3532198811725</v>
       </c>
       <c r="H28" t="n">
-        <v>86.90198264598902</v>
+        <v>86.90198264598914</v>
       </c>
       <c r="I28" t="n">
         <v>71.34225501129329</v>
@@ -6385,13 +6385,13 @@
         <v>116.4648874582288</v>
       </c>
       <c r="K28" t="n">
-        <v>320.4520704071052</v>
+        <v>320.4520704071051</v>
       </c>
       <c r="L28" t="n">
         <v>637.0118688556013</v>
       </c>
       <c r="M28" t="n">
-        <v>981.1689144551503</v>
+        <v>981.1689144551502</v>
       </c>
       <c r="N28" t="n">
         <v>1322.577291161015</v>
@@ -6400,34 +6400,34 @@
         <v>1621.906890081428</v>
       </c>
       <c r="P28" t="n">
-        <v>1854.514390515088</v>
+        <v>1854.514390515087</v>
       </c>
       <c r="Q28" t="n">
-        <v>1932.124686667603</v>
+        <v>1932.124686667602</v>
       </c>
       <c r="R28" t="n">
-        <v>1842.294229425131</v>
+        <v>1924.060178972089</v>
       </c>
       <c r="S28" t="n">
-        <v>1732.374294798916</v>
+        <v>1814.140244345874</v>
       </c>
       <c r="T28" t="n">
-        <v>1592.373628915401</v>
+        <v>1674.139578462359</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.036711588004</v>
+        <v>1385.036711588002</v>
       </c>
       <c r="V28" t="n">
-        <v>1130.352223382117</v>
+        <v>1212.118172929074</v>
       </c>
       <c r="W28" t="n">
-        <v>922.7010028921148</v>
+        <v>1004.466952439072</v>
       </c>
       <c r="X28" t="n">
-        <v>762.9913170720567</v>
+        <v>776.4774015410549</v>
       </c>
       <c r="Y28" t="n">
-        <v>623.9646874754856</v>
+        <v>637.4507719444836</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2009.396768143977</v>
       </c>
       <c r="C29" t="n">
-        <v>1691.656052829335</v>
+        <v>1691.656052829336</v>
       </c>
       <c r="D29" t="n">
         <v>1384.612155848355</v>
@@ -6449,52 +6449,52 @@
         <v>1050.045704875881</v>
       </c>
       <c r="F29" t="n">
-        <v>690.2816017120433</v>
+        <v>690.2816017120438</v>
       </c>
       <c r="G29" t="n">
         <v>326.4309531828098</v>
       </c>
       <c r="H29" t="n">
-        <v>80.06915441734719</v>
+        <v>80.06915441734722</v>
       </c>
       <c r="I29" t="n">
-        <v>80.06915441734719</v>
+        <v>80.06915441734722</v>
       </c>
       <c r="J29" t="n">
-        <v>268.9482853763726</v>
+        <v>436.3539343967257</v>
       </c>
       <c r="K29" t="n">
-        <v>602.767659066219</v>
+        <v>1091.077266532025</v>
       </c>
       <c r="L29" t="n">
-        <v>1053.801872314628</v>
+        <v>1542.111479780434</v>
       </c>
       <c r="M29" t="n">
-        <v>1587.333776986552</v>
+        <v>2075.643384452358</v>
       </c>
       <c r="N29" t="n">
-        <v>2134.112594045335</v>
+        <v>2622.42220151114</v>
       </c>
       <c r="O29" t="n">
-        <v>2707.54810868037</v>
+        <v>3125.394672390477</v>
       </c>
       <c r="P29" t="n">
-        <v>3420.903196127316</v>
+        <v>3520.169038747655</v>
       </c>
       <c r="Q29" t="n">
-        <v>3879.381398636304</v>
+        <v>3879.381398636306</v>
       </c>
       <c r="R29" t="n">
-        <v>4003.45772086736</v>
+        <v>4003.457720867361</v>
       </c>
       <c r="S29" t="n">
-        <v>3944.388854020225</v>
+        <v>3944.388854020227</v>
       </c>
       <c r="T29" t="n">
-        <v>3789.632908030217</v>
+        <v>3789.632908030218</v>
       </c>
       <c r="U29" t="n">
-        <v>3587.324232929824</v>
+        <v>3587.324232929825</v>
       </c>
       <c r="V29" t="n">
         <v>3307.483147212024</v>
@@ -6506,7 +6506,7 @@
         <v>2683.69233693237</v>
       </c>
       <c r="Y29" t="n">
-        <v>2344.774806582328</v>
+        <v>2344.774806582329</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>955.1008924662722</v>
+        <v>955.1008924662717</v>
       </c>
       <c r="C30" t="n">
-        <v>780.6478631851452</v>
+        <v>780.6478631851447</v>
       </c>
       <c r="D30" t="n">
-        <v>631.7134535238939</v>
+        <v>631.7134535238935</v>
       </c>
       <c r="E30" t="n">
-        <v>472.4759985184384</v>
+        <v>472.475998518438</v>
       </c>
       <c r="F30" t="n">
-        <v>325.9414405453234</v>
+        <v>325.941440545323</v>
       </c>
       <c r="G30" t="n">
-        <v>189.5783403779415</v>
+        <v>189.5783403779411</v>
       </c>
       <c r="H30" t="n">
-        <v>99.07644601580904</v>
+        <v>99.07644601580857</v>
       </c>
       <c r="I30" t="n">
-        <v>80.06915441734719</v>
+        <v>80.06915441734722</v>
       </c>
       <c r="J30" t="n">
         <v>173.7464239079645</v>
       </c>
       <c r="K30" t="n">
-        <v>412.0106228883117</v>
+        <v>412.0106228883116</v>
       </c>
       <c r="L30" t="n">
-        <v>778.708783200977</v>
+        <v>778.7087832009768</v>
       </c>
       <c r="M30" t="n">
         <v>1225.985108423293</v>
@@ -6561,7 +6561,7 @@
         <v>2420.969022871905</v>
       </c>
       <c r="Q30" t="n">
-        <v>2578.610580518505</v>
+        <v>2578.610580518504</v>
       </c>
       <c r="R30" t="n">
         <v>2578.46622711102</v>
@@ -6570,16 +6570,16 @@
         <v>2449.0283406045</v>
       </c>
       <c r="T30" t="n">
-        <v>2256.385340282356</v>
+        <v>2256.385340282355</v>
       </c>
       <c r="U30" t="n">
         <v>2028.317493416771</v>
       </c>
       <c r="V30" t="n">
-        <v>1793.165385185029</v>
+        <v>1793.165385185028</v>
       </c>
       <c r="W30" t="n">
-        <v>1538.928028456827</v>
+        <v>1538.928028456826</v>
       </c>
       <c r="X30" t="n">
         <v>1331.076528251294</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>746.6181070465802</v>
+        <v>746.6181070465803</v>
       </c>
       <c r="C31" t="n">
-        <v>628.9037257444435</v>
+        <v>628.9037257444436</v>
       </c>
       <c r="D31" t="n">
-        <v>530.0088879578778</v>
+        <v>530.008887957878</v>
       </c>
       <c r="E31" t="n">
-        <v>433.3175960012549</v>
+        <v>433.317596001255</v>
       </c>
       <c r="F31" t="n">
-        <v>337.6494501291147</v>
+        <v>337.6494501291148</v>
       </c>
       <c r="G31" t="n">
-        <v>221.1684151296038</v>
+        <v>221.1684151296039</v>
       </c>
       <c r="H31" t="n">
-        <v>126.1730299732317</v>
+        <v>126.1730299732318</v>
       </c>
       <c r="I31" t="n">
-        <v>80.06915441734719</v>
+        <v>80.06915441734722</v>
       </c>
       <c r="J31" t="n">
-        <v>135.665243399882</v>
+        <v>175.3942746377001</v>
       </c>
       <c r="K31" t="n">
-        <v>389.8549141221757</v>
+        <v>429.5839453599937</v>
       </c>
       <c r="L31" t="n">
-        <v>706.4147125706718</v>
+        <v>746.1437438084897</v>
       </c>
       <c r="M31" t="n">
-        <v>1100.774245943638</v>
+        <v>1140.503277181456</v>
       </c>
       <c r="N31" t="n">
-        <v>1492.38511042292</v>
+        <v>1532.114141660738</v>
       </c>
       <c r="O31" t="n">
-        <v>1841.917197116751</v>
+        <v>1881.646228354569</v>
       </c>
       <c r="P31" t="n">
-        <v>2124.727185323828</v>
+        <v>2164.456216561645</v>
       </c>
       <c r="Q31" t="n">
         <v>2252.539969249759</v>
@@ -6664,7 +6664,7 @@
         <v>1046.61554776881</v>
       </c>
       <c r="Y31" t="n">
-        <v>877.0447702510498</v>
+        <v>877.04477025105</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2009.396768143976</v>
+        <v>2009.396768143977</v>
       </c>
       <c r="C32" t="n">
-        <v>1691.656052829335</v>
+        <v>1691.656052829336</v>
       </c>
       <c r="D32" t="n">
-        <v>1384.612155848354</v>
+        <v>1384.612155848355</v>
       </c>
       <c r="E32" t="n">
-        <v>1050.04570487588</v>
+        <v>1050.045704875881</v>
       </c>
       <c r="F32" t="n">
-        <v>690.2816017120431</v>
+        <v>690.2816017120438</v>
       </c>
       <c r="G32" t="n">
         <v>326.4309531828098</v>
       </c>
       <c r="H32" t="n">
-        <v>80.06915441734719</v>
+        <v>80.06915441734722</v>
       </c>
       <c r="I32" t="n">
-        <v>80.06915441734719</v>
+        <v>80.06915441734722</v>
       </c>
       <c r="J32" t="n">
         <v>268.9482853763726</v>
@@ -6710,40 +6710,40 @@
         <v>1587.333776986552</v>
       </c>
       <c r="N32" t="n">
-        <v>2134.112594045335</v>
+        <v>2134.112594045334</v>
       </c>
       <c r="O32" t="n">
-        <v>2707.54810868037</v>
+        <v>3014.077244374789</v>
       </c>
       <c r="P32" t="n">
-        <v>3420.903196127316</v>
+        <v>3696.154292554876</v>
       </c>
       <c r="Q32" t="n">
-        <v>3879.381398636304</v>
+        <v>3944.440654310558</v>
       </c>
       <c r="R32" t="n">
-        <v>4003.45772086736</v>
+        <v>4003.457720867361</v>
       </c>
       <c r="S32" t="n">
-        <v>3944.388854020225</v>
+        <v>3944.388854020226</v>
       </c>
       <c r="T32" t="n">
-        <v>3789.632908030217</v>
+        <v>3789.632908030218</v>
       </c>
       <c r="U32" t="n">
-        <v>3587.324232929824</v>
+        <v>3587.324232929825</v>
       </c>
       <c r="V32" t="n">
-        <v>3307.483147212023</v>
+        <v>3307.483147212024</v>
       </c>
       <c r="W32" t="n">
-        <v>3005.936293567679</v>
+        <v>3005.93629356768</v>
       </c>
       <c r="X32" t="n">
-        <v>2683.692336932369</v>
+        <v>2683.69233693237</v>
       </c>
       <c r="Y32" t="n">
-        <v>2344.774806582328</v>
+        <v>2344.774806582329</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>955.1008924662722</v>
+        <v>955.1008924662717</v>
       </c>
       <c r="C33" t="n">
-        <v>780.6478631851452</v>
+        <v>780.6478631851447</v>
       </c>
       <c r="D33" t="n">
-        <v>631.7134535238939</v>
+        <v>631.7134535238935</v>
       </c>
       <c r="E33" t="n">
-        <v>472.4759985184384</v>
+        <v>472.475998518438</v>
       </c>
       <c r="F33" t="n">
-        <v>325.9414405453234</v>
+        <v>325.941440545323</v>
       </c>
       <c r="G33" t="n">
-        <v>189.5783403779415</v>
+        <v>189.5783403779411</v>
       </c>
       <c r="H33" t="n">
-        <v>99.07644601580904</v>
+        <v>99.07644601580857</v>
       </c>
       <c r="I33" t="n">
-        <v>80.06915441734719</v>
+        <v>80.06915441734722</v>
       </c>
       <c r="J33" t="n">
         <v>173.7464239079645</v>
       </c>
       <c r="K33" t="n">
-        <v>412.0106228883117</v>
+        <v>412.0106228883116</v>
       </c>
       <c r="L33" t="n">
-        <v>778.708783200977</v>
+        <v>778.7087832009768</v>
       </c>
       <c r="M33" t="n">
         <v>1225.985108423293</v>
@@ -6798,7 +6798,7 @@
         <v>2420.969022871905</v>
       </c>
       <c r="Q33" t="n">
-        <v>2578.610580518505</v>
+        <v>2578.610580518504</v>
       </c>
       <c r="R33" t="n">
         <v>2578.46622711102</v>
@@ -6807,16 +6807,16 @@
         <v>2449.0283406045</v>
       </c>
       <c r="T33" t="n">
-        <v>2256.385340282356</v>
+        <v>2256.385340282355</v>
       </c>
       <c r="U33" t="n">
         <v>2028.317493416771</v>
       </c>
       <c r="V33" t="n">
-        <v>1793.165385185029</v>
+        <v>1793.165385185028</v>
       </c>
       <c r="W33" t="n">
-        <v>1538.928028456827</v>
+        <v>1538.928028456826</v>
       </c>
       <c r="X33" t="n">
         <v>1331.076528251294</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>746.61810704658</v>
+        <v>746.6181070465803</v>
       </c>
       <c r="C34" t="n">
-        <v>628.9037257444432</v>
+        <v>628.9037257444436</v>
       </c>
       <c r="D34" t="n">
-        <v>530.0088879578777</v>
+        <v>530.008887957878</v>
       </c>
       <c r="E34" t="n">
-        <v>433.3175960012548</v>
+        <v>433.317596001255</v>
       </c>
       <c r="F34" t="n">
-        <v>337.6494501291146</v>
+        <v>337.6494501291148</v>
       </c>
       <c r="G34" t="n">
-        <v>221.1684151296037</v>
+        <v>221.1684151296039</v>
       </c>
       <c r="H34" t="n">
-        <v>126.1730299732317</v>
+        <v>126.1730299732318</v>
       </c>
       <c r="I34" t="n">
-        <v>80.06915441734719</v>
+        <v>80.06915441734722</v>
       </c>
       <c r="J34" t="n">
-        <v>175.3942746377001</v>
+        <v>125.1917868642828</v>
       </c>
       <c r="K34" t="n">
-        <v>429.5839453599938</v>
+        <v>379.3814575865764</v>
       </c>
       <c r="L34" t="n">
-        <v>746.1437438084899</v>
+        <v>746.1437438084897</v>
       </c>
       <c r="M34" t="n">
-        <v>1100.774245943638</v>
+        <v>1140.503277181456</v>
       </c>
       <c r="N34" t="n">
-        <v>1492.38511042292</v>
+        <v>1532.114141660738</v>
       </c>
       <c r="O34" t="n">
-        <v>1841.917197116751</v>
+        <v>1881.646228354569</v>
       </c>
       <c r="P34" t="n">
         <v>2124.727185323828</v>
@@ -6901,7 +6901,7 @@
         <v>1046.61554776881</v>
       </c>
       <c r="Y34" t="n">
-        <v>877.0447702510496</v>
+        <v>877.04477025105</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.7336441225987</v>
+        <v>500.9308303909351</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4688957685351</v>
+        <v>430.6660820368717</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300427</v>
+        <v>379.2208771983795</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>329.97921818983</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>281.7607052657631</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1668.551646658396</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1379.448779784039</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1124.764291578152</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205426</v>
+        <v>835.3471215411918</v>
       </c>
       <c r="X37" t="n">
-        <v>757.5032535225253</v>
+        <v>706.0290052170179</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.7106743789951</v>
+        <v>583.9078606473313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464967</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.7336441225988</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4688957685352</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D40" t="n">
-        <v>332.0236909300428</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E40" t="n">
-        <v>282.7820319214931</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5635189974261</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>978.8956707359731</v>
+        <v>1124.764291578152</v>
       </c>
       <c r="W40" t="n">
-        <v>788.1499352728558</v>
+        <v>934.0185561150353</v>
       </c>
       <c r="X40" t="n">
-        <v>658.8318189486819</v>
+        <v>706.0290052170179</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.7106743789951</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647791</v>
+        <v>444.8926667912277</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368722</v>
+        <v>374.6279184371643</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>323.1827135986721</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>273.9410545901225</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>225.7225416660556</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>156.6911396146181</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>109.1453874063194</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.683025816217</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.777345210197</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.764291578153</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>934.0185561150362</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X43" t="n">
-        <v>804.7004397908622</v>
+        <v>748.662276191154</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211755</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758176</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552289</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>877.9803925153285</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170187</v>
+        <v>804.7004397908614</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>583.9078606473313</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>131.3266008502576</v>
+        <v>131.3266008502578</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5735032339022</v>
+        <v>145.5735032339025</v>
       </c>
       <c r="L8" t="n">
-        <v>143.3222963241395</v>
+        <v>143.3222963241399</v>
       </c>
       <c r="M8" t="n">
-        <v>127.4843391590395</v>
+        <v>127.48433915904</v>
       </c>
       <c r="N8" t="n">
-        <v>124.8867565435343</v>
+        <v>124.8867565435348</v>
       </c>
       <c r="O8" t="n">
-        <v>131.3969836885905</v>
+        <v>131.396983688591</v>
       </c>
       <c r="P8" t="n">
-        <v>146.9937814186809</v>
+        <v>146.9937814186813</v>
       </c>
       <c r="Q8" t="n">
-        <v>159.0455481358326</v>
+        <v>159.0455481358328</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>97.2251500083148</v>
+        <v>97.22515000831493</v>
       </c>
       <c r="K9" t="n">
-        <v>87.22899975934847</v>
+        <v>87.2289997593487</v>
       </c>
       <c r="L9" t="n">
-        <v>70.49970929235222</v>
+        <v>70.49970929235252</v>
       </c>
       <c r="M9" t="n">
-        <v>62.71744339451315</v>
+        <v>62.71744339451351</v>
       </c>
       <c r="N9" t="n">
-        <v>49.82320071600546</v>
+        <v>49.82320071600583</v>
       </c>
       <c r="O9" t="n">
-        <v>68.02273247723701</v>
+        <v>68.02273247723734</v>
       </c>
       <c r="P9" t="n">
-        <v>74.12258954369634</v>
+        <v>74.12258954369662</v>
       </c>
       <c r="Q9" t="n">
-        <v>99.97241887202617</v>
+        <v>99.97241887202637</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>98.48403492067779</v>
+        <v>98.48403492067791</v>
       </c>
       <c r="L10" t="n">
-        <v>95.81778136510594</v>
+        <v>95.81778136510613</v>
       </c>
       <c r="M10" t="n">
-        <v>97.73522084140046</v>
+        <v>97.73522084140066</v>
       </c>
       <c r="N10" t="n">
-        <v>87.47440088425876</v>
+        <v>87.47440088425893</v>
       </c>
       <c r="O10" t="n">
-        <v>101.3150389926263</v>
+        <v>101.3150389926265</v>
       </c>
       <c r="P10" t="n">
-        <v>105.9470348694837</v>
+        <v>105.9470348694838</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>294.8344935184728</v>
       </c>
       <c r="Q12" t="n">
-        <v>186.4490126143849</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>239.0674650266516</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>173.351045153667</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>71.17479167242266</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>112.0464627605745</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>71.17479167242266</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>290.2047291140499</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-9.592326932761353e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>365.9974114868648</v>
       </c>
       <c r="C11" t="n">
-        <v>174.4886449565319</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>337.9466114440673</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>365.1939398956461</v>
+        <v>365.193939895646</v>
       </c>
       <c r="F11" t="n">
-        <v>390.1396155650958</v>
+        <v>390.1396155650957</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8112725963383</v>
+        <v>394.8112725963382</v>
       </c>
       <c r="H11" t="n">
-        <v>284.2821223857897</v>
+        <v>284.2821223857896</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>48.97348249585465</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>97.4643624178787</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.0955500053216</v>
+        <v>163.0955500053215</v>
       </c>
       <c r="C13" t="n">
-        <v>150.5103909220121</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>131.8790428415967</v>
+        <v>131.8790428415966</v>
       </c>
       <c r="E13" t="n">
-        <v>129.6975324699535</v>
+        <v>129.6975324699534</v>
       </c>
       <c r="F13" t="n">
         <v>128.6846178463155</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>149.5701698681884</v>
       </c>
       <c r="H13" t="n">
-        <v>29.92207565933429</v>
+        <v>130.515078978513</v>
       </c>
       <c r="I13" t="n">
-        <v>88.06016502728488</v>
+        <v>88.06016502728477</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.8482231754791</v>
+        <v>102.1954409101217</v>
       </c>
     </row>
     <row r="14">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>102.4006336413267</v>
+        <v>350.0332614100557</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1149120.900468041</v>
+        <v>1149120.900468042</v>
       </c>
     </row>
     <row r="6">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>124795.3760734363</v>
+        <v>124795.3760734358</v>
       </c>
       <c r="E3" t="n">
-        <v>838013.5267728475</v>
+        <v>838013.5267728483</v>
       </c>
       <c r="F3" t="n">
-        <v>201946.5094125042</v>
+        <v>201946.509412504</v>
       </c>
       <c r="G3" t="n">
-        <v>40567.66688760996</v>
+        <v>40567.66688760994</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15797.20972990782</v>
+        <v>15797.20972990785</v>
       </c>
       <c r="K3" t="n">
-        <v>28075.30807921603</v>
+        <v>28075.30807921609</v>
       </c>
       <c r="L3" t="n">
-        <v>40567.66688760998</v>
+        <v>40567.66688760994</v>
       </c>
       <c r="M3" t="n">
         <v>154985.5606178476</v>
       </c>
       <c r="N3" t="n">
-        <v>46736.14309555113</v>
+        <v>46736.14309555111</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>413954.9178218744</v>
+        <v>413954.9178218746</v>
       </c>
       <c r="E4" t="n">
-        <v>43925.75094234061</v>
+        <v>43925.7509423407</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723866009</v>
+        <v>61265.27723866011</v>
       </c>
       <c r="G4" t="n">
         <v>93403.78684820639</v>
       </c>
       <c r="H4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="I4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="J4" t="n">
-        <v>93253.28399667749</v>
+        <v>93253.28399667755</v>
       </c>
       <c r="K4" t="n">
-        <v>93078.51962334466</v>
+        <v>93078.51962334476</v>
       </c>
       <c r="L4" t="n">
-        <v>93078.51962334465</v>
+        <v>93078.51962334476</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820626</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820642</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36804.2636211002</v>
+        <v>36804.26362110019</v>
       </c>
       <c r="E5" t="n">
-        <v>60717.18738836262</v>
+        <v>60717.18738836264</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
@@ -26488,7 +26488,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="J5" t="n">
         <v>84782.48767785545</v>
@@ -26500,16 +26500,16 @@
         <v>88872.79341458587</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-496778.3311021097</v>
+        <v>-496782.7446799779</v>
       </c>
       <c r="C6" t="n">
-        <v>-496778.3311021097</v>
+        <v>-496782.7446799779</v>
       </c>
       <c r="D6" t="n">
-        <v>-575554.5575164109</v>
+        <v>-575558.8545194669</v>
       </c>
       <c r="E6" t="n">
-        <v>-942656.4651035507</v>
+        <v>-943105.3125385903</v>
       </c>
       <c r="F6" t="n">
-        <v>-341467.279972946</v>
+        <v>-341608.5568728819</v>
       </c>
       <c r="G6" t="n">
         <v>-216490.0510420662</v>
       </c>
       <c r="H6" t="n">
+        <v>-175922.3841544563</v>
+      </c>
+      <c r="I6" t="n">
         <v>-175922.3841544562</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-175922.3841544561</v>
       </c>
       <c r="J6" t="n">
         <v>-193832.9814044408</v>
       </c>
       <c r="K6" t="n">
-        <v>-210026.6211171466</v>
+        <v>-210026.6211171467</v>
       </c>
       <c r="L6" t="n">
-        <v>-222518.9799255405</v>
+        <v>-222518.9799255406</v>
       </c>
       <c r="M6" t="n">
-        <v>-330907.9447723037</v>
+        <v>-330907.9447723039</v>
       </c>
       <c r="N6" t="n">
-        <v>-222658.5272500073</v>
+        <v>-222658.5272500074</v>
       </c>
       <c r="O6" t="n">
         <v>-175922.3841544563</v>
       </c>
       <c r="P6" t="n">
-        <v>-175922.3841544561</v>
+        <v>-175922.3841544563</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="J2" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="K2" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="L2" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145.7185147293673</v>
+        <v>145.7185147293666</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26811,7 +26811,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>891.778187641166</v>
+        <v>891.7781876411661</v>
       </c>
       <c r="K4" t="n">
         <v>1000.86443021684</v>
@@ -26820,16 +26820,16 @@
         <v>1000.86443021684</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="F2" t="n">
-        <v>30.23870644197688</v>
+        <v>30.23870644197681</v>
       </c>
       <c r="G2" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50.70958360951247</v>
+        <v>50.70958360951243</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145.7185147293673</v>
+        <v>145.7185147293666</v>
       </c>
       <c r="E3" t="n">
-        <v>788.3463773881721</v>
+        <v>788.3463773881729</v>
       </c>
       <c r="F3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>60.3767322388735</v>
+        <v>60.37673223887361</v>
       </c>
       <c r="K4" t="n">
-        <v>109.0862425756739</v>
+        <v>109.0862425756741</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>471.1218572854917</v>
+        <v>471.1218572854908</v>
       </c>
       <c r="N4" t="n">
         <v>190.8166233022538</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="K2" t="n">
-        <v>30.23870644197688</v>
+        <v>30.23870644197681</v>
       </c>
       <c r="L2" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>333.4754463812058</v>
       </c>
       <c r="I8" t="n">
-        <v>187.8917165488826</v>
+        <v>187.8917165488827</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>113.0711655758487</v>
+        <v>113.0711655758489</v>
       </c>
       <c r="S8" t="n">
-        <v>195.6710820308867</v>
+        <v>195.6710820308868</v>
       </c>
       <c r="T8" t="n">
-        <v>220.5314966064316</v>
+        <v>220.5314966064317</v>
       </c>
       <c r="U8" t="n">
         <v>251.2987886618934</v>
@@ -27950,7 +27950,7 @@
         <v>109.2083482984392</v>
       </c>
       <c r="I9" t="n">
-        <v>78.60521454362703</v>
+        <v>78.60521454362707</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>80.69753892142687</v>
+        <v>80.69753892142695</v>
       </c>
       <c r="S9" t="n">
         <v>165.8613040295089</v>
@@ -28032,7 +28032,7 @@
         <v>147.548231538328</v>
       </c>
       <c r="J10" t="n">
-        <v>74.7812639027336</v>
+        <v>74.78126390273368</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.15854752755993</v>
+        <v>64.15854752756002</v>
       </c>
       <c r="R10" t="n">
-        <v>165.4782475435391</v>
+        <v>165.4782475435392</v>
       </c>
       <c r="S10" t="n">
         <v>219.4372145494936</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="C11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="D11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="E11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="F11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="G11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="H11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="I11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="T11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="U11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="V11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="W11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="X11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="C13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="D13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="E13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="F13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="G13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="H13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="I13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="J13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="K13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="L13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="M13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="N13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="O13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="P13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="R13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="S13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="T13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="U13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="V13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="W13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="X13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.73643017661569</v>
+        <v>16.73643017661579</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="18">
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.72521440565316</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810504</v>
+        <v>46.72521440565339</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -28773,22 +28773,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="21">
@@ -28956,25 +28956,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G22" t="n">
-        <v>46.72521440565345</v>
+        <v>55.47778196371122</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="24">
@@ -29196,25 +29196,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544437</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>55.47778196371044</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="C26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="D26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="E26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="F26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="G26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="H26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="T26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="U26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="V26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="W26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="X26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
     </row>
     <row r="27">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="C28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="D28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="E28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="F28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="G28" t="n">
-        <v>80.94829005148932</v>
+        <v>67.59706642718216</v>
       </c>
       <c r="H28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="I28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="S28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="T28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="U28" t="n">
-        <v>80.94829005148932</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="W28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
       <c r="X28" t="n">
-        <v>67.59706642717964</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.94829005148932</v>
+        <v>80.94829005148922</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="C29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="D29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="E29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="F29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="G29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="H29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="T29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="U29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="V29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="W29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="X29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="Y29" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="C31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="D31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="E31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="F31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="G31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="H31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="I31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="J31" t="n">
-        <v>10.5792490258578</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="K31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="N31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="O31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="P31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.70958360951244</v>
+        <v>10.57924902585803</v>
       </c>
       <c r="R31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="S31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="T31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="U31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="V31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="W31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="X31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951242</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="C32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="D32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="E32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="F32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="G32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="H32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="T32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="U32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="V32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="W32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="X32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="Y32" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="C34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="D34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="E34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="F34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="G34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="H34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="I34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="J34" t="n">
-        <v>50.70958360951246</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="M34" t="n">
-        <v>10.57924902585773</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="N34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="O34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="P34" t="n">
-        <v>50.70958360951246</v>
+        <v>10.5792490258583</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="R34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="S34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="T34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="U34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="V34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="W34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="X34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951242</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E37" t="n">
-        <v>46.72521440565414</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810488</v>
+        <v>55.47778196371058</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G40" t="n">
-        <v>46.7252144056539</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>55.47778196371019</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544345</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U43" t="n">
-        <v>46.7252144056535</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,25 +30900,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X46" t="n">
-        <v>55.47778196371047</v>
+        <v>55.47778196371058</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5858030742889133</v>
+        <v>0.5858030742889107</v>
       </c>
       <c r="H8" t="n">
-        <v>5.999355734561335</v>
+        <v>5.999355734561307</v>
       </c>
       <c r="I8" t="n">
-        <v>22.58417302152335</v>
+        <v>22.58417302152325</v>
       </c>
       <c r="J8" t="n">
-        <v>49.71930367642869</v>
+        <v>49.71930367642847</v>
       </c>
       <c r="K8" t="n">
-        <v>74.5163478110784</v>
+        <v>74.51634781107808</v>
       </c>
       <c r="L8" t="n">
-        <v>92.44411864584777</v>
+        <v>92.44411864584734</v>
       </c>
       <c r="M8" t="n">
-        <v>102.8618940682332</v>
+        <v>102.8618940682328</v>
       </c>
       <c r="N8" t="n">
-        <v>104.5263070530566</v>
+        <v>104.5263070530561</v>
       </c>
       <c r="O8" t="n">
-        <v>98.70122773309622</v>
+        <v>98.70122773309576</v>
       </c>
       <c r="P8" t="n">
-        <v>84.23921433658866</v>
+        <v>84.23921433658828</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.26014173861692</v>
+        <v>63.26014173861665</v>
       </c>
       <c r="R8" t="n">
-        <v>36.79795236530098</v>
+        <v>36.79795236530082</v>
       </c>
       <c r="S8" t="n">
-        <v>13.34898755535862</v>
+        <v>13.34898755535856</v>
       </c>
       <c r="T8" t="n">
-        <v>2.564352957699719</v>
+        <v>2.564352957699708</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04686424594311305</v>
+        <v>0.04686424594311284</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3134322769650542</v>
+        <v>0.3134322769650528</v>
       </c>
       <c r="H9" t="n">
-        <v>3.027095938057234</v>
+        <v>3.02709593805722</v>
       </c>
       <c r="I9" t="n">
-        <v>10.79141830778805</v>
+        <v>10.791418307788</v>
       </c>
       <c r="J9" t="n">
-        <v>29.6124766583519</v>
+        <v>29.61247665835177</v>
       </c>
       <c r="K9" t="n">
-        <v>50.61243921501053</v>
+        <v>50.6124392150103</v>
       </c>
       <c r="L9" t="n">
-        <v>68.05467048752196</v>
+        <v>68.05467048752166</v>
       </c>
       <c r="M9" t="n">
-        <v>79.41659052750516</v>
+        <v>79.41659052750481</v>
       </c>
       <c r="N9" t="n">
-        <v>81.51851136732785</v>
+        <v>81.51851136732748</v>
       </c>
       <c r="O9" t="n">
-        <v>74.57351196720742</v>
+        <v>74.5735119672071</v>
       </c>
       <c r="P9" t="n">
-        <v>59.8518178706339</v>
+        <v>59.85181787063363</v>
       </c>
       <c r="Q9" t="n">
-        <v>40.00935521399534</v>
+        <v>40.00935521399516</v>
       </c>
       <c r="R9" t="n">
-        <v>19.46029523121626</v>
+        <v>19.46029523121618</v>
       </c>
       <c r="S9" t="n">
-        <v>5.821867074328963</v>
+        <v>5.821867074328937</v>
       </c>
       <c r="T9" t="n">
-        <v>1.263352028644231</v>
+        <v>1.263352028644225</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02062054453717463</v>
+        <v>0.02062054453717453</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2627710921349246</v>
+        <v>0.2627710921349234</v>
       </c>
       <c r="H10" t="n">
-        <v>2.336273891890513</v>
+        <v>2.336273891890503</v>
       </c>
       <c r="I10" t="n">
-        <v>7.90224338893028</v>
+        <v>7.902243388930245</v>
       </c>
       <c r="J10" t="n">
-        <v>18.57791621393917</v>
+        <v>18.57791621393908</v>
       </c>
       <c r="K10" t="n">
-        <v>30.52922324985759</v>
+        <v>30.52922324985746</v>
       </c>
       <c r="L10" t="n">
-        <v>39.06689491613234</v>
+        <v>39.06689491613216</v>
       </c>
       <c r="M10" t="n">
-        <v>41.19056310620459</v>
+        <v>41.1905631062044</v>
       </c>
       <c r="N10" t="n">
-        <v>40.21114358097444</v>
+        <v>40.21114358097426</v>
       </c>
       <c r="O10" t="n">
-        <v>37.14149945921645</v>
+        <v>37.14149945921628</v>
       </c>
       <c r="P10" t="n">
-        <v>31.78096917966396</v>
+        <v>31.78096917966381</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.00349572413446</v>
+        <v>22.00349572413436</v>
       </c>
       <c r="R10" t="n">
-        <v>11.81514383363033</v>
+        <v>11.81514383363028</v>
       </c>
       <c r="S10" t="n">
-        <v>4.579383487478639</v>
+        <v>4.579383487478618</v>
       </c>
       <c r="T10" t="n">
-        <v>1.122749211849223</v>
+        <v>1.122749211849218</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01433296866190499</v>
+        <v>0.01433296866190493</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,28 +31756,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J11" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L11" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O11" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q11" t="n">
         <v>405.5015080147052</v>
@@ -31792,7 +31792,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H12" t="n">
         <v>19.40387634380021</v>
@@ -31841,10 +31841,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M12" t="n">
         <v>509.0653662040589</v>
@@ -31853,7 +31853,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P12" t="n">
         <v>383.6539365378626</v>
@@ -31865,10 +31865,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U12" t="n">
         <v>0.1321789941675764</v>
@@ -31914,19 +31914,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K13" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L13" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N13" t="n">
         <v>257.7559726067959</v>
@@ -31941,16 +31941,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S13" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L11" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O11" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q11" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M12" t="n">
         <v>366.9313322820406</v>
@@ -35504,13 +35504,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P12" t="n">
-        <v>568.1422977634695</v>
+        <v>544.5140226420051</v>
       </c>
       <c r="Q12" t="n">
-        <v>302.9297349452394</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R12" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.46286753532164</v>
+        <v>42.46286753532175</v>
       </c>
       <c r="K13" t="n">
-        <v>190.1611895189648</v>
+        <v>190.1611895189649</v>
       </c>
       <c r="L13" t="n">
-        <v>294.7477217597227</v>
+        <v>294.7477217597228</v>
       </c>
       <c r="M13" t="n">
-        <v>320.354420823419</v>
+        <v>320.3544208234192</v>
       </c>
       <c r="N13" t="n">
-        <v>318.6245751626402</v>
+        <v>318.6245751626403</v>
       </c>
       <c r="O13" t="n">
-        <v>279.4009178061227</v>
+        <v>279.4009178061228</v>
       </c>
       <c r="P13" t="n">
-        <v>217.7330111584229</v>
+        <v>217.733011158423</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.61818563466974</v>
+        <v>71.61818563466984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302271</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>791.3693004395628</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.1453499573865</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>579.2277925606418</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>362.840767564294</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>56.15766563892402</v>
+        <v>96.28800022257862</v>
       </c>
       <c r="K31" t="n">
         <v>256.757243153832</v>
@@ -36996,19 +36996,19 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>398.3429630029963</v>
+        <v>398.3429630029962</v>
       </c>
       <c r="N31" t="n">
-        <v>395.5665297770526</v>
+        <v>395.5665297770524</v>
       </c>
       <c r="O31" t="n">
         <v>353.0627138321522</v>
       </c>
       <c r="P31" t="n">
-        <v>285.6666547546229</v>
+        <v>285.6666547546228</v>
       </c>
       <c r="Q31" t="n">
-        <v>129.1038221474061</v>
+        <v>88.97348756375166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>579.2277925606418</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>688.9667153334216</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.28800022257869</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
         <v>256.757243153832</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>370.4669557797105</v>
       </c>
       <c r="M34" t="n">
-        <v>358.2126284193416</v>
+        <v>398.3429630029962</v>
       </c>
       <c r="N34" t="n">
-        <v>395.5665297770526</v>
+        <v>395.5665297770524</v>
       </c>
       <c r="O34" t="n">
         <v>353.0627138321522</v>
       </c>
       <c r="P34" t="n">
-        <v>285.6666547546229</v>
+        <v>245.5363201709687</v>
       </c>
       <c r="Q34" t="n">
-        <v>129.1038221474061</v>
+        <v>129.103822147406</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
